--- a/data/outputs/OR_elsevier/42.xlsx
+++ b/data/outputs/OR_elsevier/42.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS119"/>
+  <dimension ref="A1:BU119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -933,6 +943,12 @@
           <t>2-s2.0-84920277900</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>15184</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>277</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1154,6 +1170,12 @@
           <t>2-s2.0-84913558028</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>32486</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>240</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1361,6 +1383,12 @@
           <t>2-s2.0-84923007334</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>16516</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>212</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1572,6 +1600,12 @@
           <t>2-s2.0-84922433461</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>9030</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1781,6 +1815,12 @@
           <t>2-s2.0-84908005845</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>2527</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1990,6 +2030,12 @@
           <t>2-s2.0-84923368955</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>5578</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2207,6 +2253,12 @@
           <t>2-s2.0-84920111667</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>2886</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2416,6 +2468,12 @@
           <t>2-s2.0-84905714757</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>3154</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2629,6 +2687,12 @@
           <t>2-s2.0-84961290960</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>4202</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2846,6 +2910,12 @@
           <t>2-s2.0-84925400026</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>1229</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3074,6 +3144,12 @@
         <is>
           <t>2-s2.0-84941168605</t>
         </is>
+      </c>
+      <c r="BT12" t="n">
+        <v>2420</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="13">
@@ -3284,6 +3360,12 @@
           <t>2-s2.0-84939895969</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>4177</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3493,6 +3575,12 @@
           <t>2-s2.0-84927934663</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>4099</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3706,6 +3794,12 @@
           <t>2-s2.0-84921459774</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>2838</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3923,6 +4017,12 @@
           <t>2-s2.0-84927563042</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>5070</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4132,6 +4232,12 @@
           <t>2-s2.0-84921279023</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>8242</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4345,6 +4451,12 @@
           <t>2-s2.0-84923013730</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>3173</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4554,6 +4666,12 @@
           <t>2-s2.0-84911365474</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>5369</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4763,6 +4881,12 @@
           <t>2-s2.0-84922607591</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>3876</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4972,6 +5096,12 @@
           <t>2-s2.0-84907611131</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>1827</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5181,6 +5311,12 @@
           <t>2-s2.0-84907662271</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>2441</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5394,6 +5530,12 @@
           <t>2-s2.0-84920124574</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>3909</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5611,6 +5753,12 @@
           <t>2-s2.0-84907638390</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>2542</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5820,6 +5968,12 @@
           <t>2-s2.0-84908210412</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>4130</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6021,6 +6175,12 @@
           <t>2-s2.0-84918555549</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>3288</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6238,6 +6398,12 @@
           <t>2-s2.0-84939890691</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>1463</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6455,6 +6621,12 @@
           <t>2-s2.0-84922676232</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>2984</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6672,6 +6844,12 @@
           <t>2-s2.0-84911890035</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>1950</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6889,6 +7067,12 @@
           <t>2-s2.0-84912001303</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>1690</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7098,6 +7282,12 @@
           <t>2-s2.0-84921317413</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>4301</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7299,6 +7489,12 @@
           <t>2-s2.0-84912001272</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>1840</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7512,6 +7708,12 @@
           <t>2-s2.0-84907638391</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>3315</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7724,6 +7926,12 @@
         <is>
           <t>2-s2.0-84941186926</t>
         </is>
+      </c>
+      <c r="BT34" t="n">
+        <v>4423</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="35">
@@ -7944,6 +8152,12 @@
           <t>2-s2.0-84923017719</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>2344</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8153,6 +8367,12 @@
           <t>2-s2.0-84921713375</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>3408</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8374,6 +8594,12 @@
           <t>2-s2.0-84941179650</t>
         </is>
       </c>
+      <c r="BT37" t="n">
+        <v>2565</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8590,6 +8816,12 @@
         <is>
           <t>2-s2.0-84942822073</t>
         </is>
+      </c>
+      <c r="BT38" t="n">
+        <v>2445</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="39">
@@ -8798,6 +9030,12 @@
           <t>2-s2.0-84928619719</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>1252</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9015,6 +9253,12 @@
           <t>2-s2.0-84906761465</t>
         </is>
       </c>
+      <c r="BT40" t="n">
+        <v>2721</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9239,6 +9483,12 @@
         <is>
           <t>2-s2.0-84941167760</t>
         </is>
+      </c>
+      <c r="BT41" t="n">
+        <v>6748</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="42">
@@ -9449,6 +9699,12 @@
           <t>2-s2.0-84937951712</t>
         </is>
       </c>
+      <c r="BT42" t="n">
+        <v>3232</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9666,6 +9922,12 @@
           <t>2-s2.0-84923129946</t>
         </is>
       </c>
+      <c r="BT43" t="n">
+        <v>3001</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9885,6 +10147,12 @@
           <t>2-s2.0-84921913405</t>
         </is>
       </c>
+      <c r="BT44" t="n">
+        <v>1022</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10108,6 +10376,12 @@
           <t>2-s2.0-84907612592</t>
         </is>
       </c>
+      <c r="BT45" t="n">
+        <v>6951</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10317,6 +10591,12 @@
           <t>2-s2.0-84921506859</t>
         </is>
       </c>
+      <c r="BT46" t="n">
+        <v>1484</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10531,6 +10811,12 @@
         <is>
           <t>2-s2.0-84942593473</t>
         </is>
+      </c>
+      <c r="BT47" t="n">
+        <v>869</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="48">
@@ -10749,6 +11035,12 @@
           <t>2-s2.0-84912056951</t>
         </is>
       </c>
+      <c r="BT48" t="n">
+        <v>1547</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10950,6 +11242,12 @@
           <t>2-s2.0-84961291602</t>
         </is>
       </c>
+      <c r="BT49" t="n">
+        <v>1939</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11159,6 +11457,12 @@
           <t>2-s2.0-84937968620</t>
         </is>
       </c>
+      <c r="BT50" t="n">
+        <v>2009</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11378,6 +11682,12 @@
           <t>2-s2.0-84924702953</t>
         </is>
       </c>
+      <c r="BT51" t="n">
+        <v>2488</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11595,6 +11905,12 @@
           <t>2-s2.0-84923294627</t>
         </is>
       </c>
+      <c r="BT52" t="n">
+        <v>1379</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11800,6 +12116,12 @@
           <t>2-s2.0-84906861400</t>
         </is>
       </c>
+      <c r="BT53" t="n">
+        <v>2389</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -12001,6 +12323,12 @@
           <t>2-s2.0-84923081030</t>
         </is>
       </c>
+      <c r="BT54" t="n">
+        <v>4005</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12218,6 +12546,12 @@
           <t>2-s2.0-84920138765</t>
         </is>
       </c>
+      <c r="BT55" t="n">
+        <v>1527</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12435,6 +12769,12 @@
           <t>2-s2.0-84949114877</t>
         </is>
       </c>
+      <c r="BT56" t="n">
+        <v>2120</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12644,6 +12984,12 @@
           <t>2-s2.0-84907606192</t>
         </is>
       </c>
+      <c r="BT57" t="n">
+        <v>2492</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12849,6 +13195,12 @@
           <t>2-s2.0-84907978766</t>
         </is>
       </c>
+      <c r="BT58" t="n">
+        <v>5848</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13054,6 +13406,12 @@
           <t>2-s2.0-84942835452</t>
         </is>
       </c>
+      <c r="BT59" t="n">
+        <v>3200</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13267,6 +13625,12 @@
           <t>2-s2.0-84961366973</t>
         </is>
       </c>
+      <c r="BT60" t="n">
+        <v>3416</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13470,6 +13834,12 @@
           <t>2-s2.0-84924974076</t>
         </is>
       </c>
+      <c r="BT61" t="n">
+        <v>2334</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13679,6 +14049,12 @@
           <t>2-s2.0-84912002826</t>
         </is>
       </c>
+      <c r="BT62" t="n">
+        <v>4336</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13888,6 +14264,12 @@
           <t>2-s2.0-84908272675</t>
         </is>
       </c>
+      <c r="BT63" t="n">
+        <v>1148</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14105,6 +14487,12 @@
           <t>2-s2.0-84941181129</t>
         </is>
       </c>
+      <c r="BT64" t="n">
+        <v>1675</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14322,6 +14710,12 @@
           <t>2-s2.0-84942820188</t>
         </is>
       </c>
+      <c r="BT65" t="n">
+        <v>1464</v>
+      </c>
+      <c r="BU65" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14534,6 +14928,12 @@
         <is>
           <t>2-s2.0-84942821344</t>
         </is>
+      </c>
+      <c r="BT66" t="n">
+        <v>3546</v>
+      </c>
+      <c r="BU66" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="67">
@@ -14744,6 +15144,12 @@
           <t>2-s2.0-84924691863</t>
         </is>
       </c>
+      <c r="BT67" t="n">
+        <v>1821</v>
+      </c>
+      <c r="BU67" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -14953,6 +15359,12 @@
           <t>2-s2.0-84924742035</t>
         </is>
       </c>
+      <c r="BT68" t="n">
+        <v>2103</v>
+      </c>
+      <c r="BU68" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15170,6 +15582,12 @@
           <t>2-s2.0-84921920837</t>
         </is>
       </c>
+      <c r="BT69" t="n">
+        <v>1622</v>
+      </c>
+      <c r="BU69" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15391,6 +15809,12 @@
           <t>2-s2.0-84920121519</t>
         </is>
       </c>
+      <c r="BT70" t="n">
+        <v>1719</v>
+      </c>
+      <c r="BU70" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15603,6 +16027,12 @@
         <is>
           <t>2-s2.0-84942838839</t>
         </is>
+      </c>
+      <c r="BT71" t="n">
+        <v>505</v>
+      </c>
+      <c r="BU71" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="72">
@@ -15823,6 +16253,12 @@
           <t>2-s2.0-84923010798</t>
         </is>
       </c>
+      <c r="BT72" t="n">
+        <v>1362</v>
+      </c>
+      <c r="BU72" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -16034,6 +16470,12 @@
           <t>2-s2.0-84908192145</t>
         </is>
       </c>
+      <c r="BT73" t="n">
+        <v>1598</v>
+      </c>
+      <c r="BU73" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16258,6 +16700,12 @@
         <is>
           <t>2-s2.0-84941099051</t>
         </is>
+      </c>
+      <c r="BT74" t="n">
+        <v>2734</v>
+      </c>
+      <c r="BU74" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="75">
@@ -16476,6 +16924,12 @@
           <t>2-s2.0-84923023813</t>
         </is>
       </c>
+      <c r="BT75" t="n">
+        <v>809</v>
+      </c>
+      <c r="BU75" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16685,6 +17139,12 @@
           <t>2-s2.0-84921472037</t>
         </is>
       </c>
+      <c r="BT76" t="n">
+        <v>1865</v>
+      </c>
+      <c r="BU76" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -16902,6 +17362,12 @@
           <t>2-s2.0-84918563313</t>
         </is>
       </c>
+      <c r="BT77" t="n">
+        <v>1404</v>
+      </c>
+      <c r="BU77" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -17122,6 +17588,12 @@
         <is>
           <t>2-s2.0-84942834745</t>
         </is>
+      </c>
+      <c r="BT78" t="n">
+        <v>1933</v>
+      </c>
+      <c r="BU78" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="79">
@@ -17334,6 +17806,12 @@
           <t>2-s2.0-84941167440</t>
         </is>
       </c>
+      <c r="BT79" t="n">
+        <v>2890</v>
+      </c>
+      <c r="BU79" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17556,6 +18034,12 @@
         <is>
           <t>2-s2.0-84942835567</t>
         </is>
+      </c>
+      <c r="BT80" t="n">
+        <v>1523</v>
+      </c>
+      <c r="BU80" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="81">
@@ -17764,6 +18248,12 @@
           <t>2-s2.0-84925436993</t>
         </is>
       </c>
+      <c r="BT81" t="n">
+        <v>3224</v>
+      </c>
+      <c r="BU81" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -17969,6 +18459,12 @@
           <t>2-s2.0-84923030637</t>
         </is>
       </c>
+      <c r="BT82" t="n">
+        <v>1653</v>
+      </c>
+      <c r="BU82" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -18170,6 +18666,12 @@
           <t>2-s2.0-84923080218</t>
         </is>
       </c>
+      <c r="BT83" t="n">
+        <v>2099</v>
+      </c>
+      <c r="BU83" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -18379,6 +18881,12 @@
           <t>2-s2.0-84923641943</t>
         </is>
       </c>
+      <c r="BT84" t="n">
+        <v>1226</v>
+      </c>
+      <c r="BU84" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -18580,6 +19088,12 @@
           <t>2-s2.0-84920153381</t>
         </is>
       </c>
+      <c r="BT85" t="n">
+        <v>1740</v>
+      </c>
+      <c r="BU85" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -18797,6 +19311,12 @@
           <t>2-s2.0-84908241990</t>
         </is>
       </c>
+      <c r="BT86" t="n">
+        <v>2142</v>
+      </c>
+      <c r="BU86" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -19006,6 +19526,12 @@
           <t>2-s2.0-84921273439</t>
         </is>
       </c>
+      <c r="BT87" t="n">
+        <v>3914</v>
+      </c>
+      <c r="BU87" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -19215,6 +19741,12 @@
           <t>2-s2.0-84907637727</t>
         </is>
       </c>
+      <c r="BT88" t="n">
+        <v>1751</v>
+      </c>
+      <c r="BU88" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -19420,6 +19952,12 @@
           <t>2-s2.0-84906498657</t>
         </is>
       </c>
+      <c r="BT89" t="n">
+        <v>1476</v>
+      </c>
+      <c r="BU89" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -19621,6 +20159,12 @@
           <t>2-s2.0-84906658267</t>
         </is>
       </c>
+      <c r="BT90" t="n">
+        <v>1923</v>
+      </c>
+      <c r="BU90" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -19826,6 +20370,12 @@
           <t>2-s2.0-84942825950</t>
         </is>
       </c>
+      <c r="BT91" t="n">
+        <v>999</v>
+      </c>
+      <c r="BU91" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -20046,6 +20596,12 @@
         <is>
           <t>2-s2.0-84941174805</t>
         </is>
+      </c>
+      <c r="BT92" t="n">
+        <v>2309</v>
+      </c>
+      <c r="BU92" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="93">
@@ -20260,6 +20816,12 @@
           <t>2-s2.0-84922980553</t>
         </is>
       </c>
+      <c r="BT93" t="n">
+        <v>1478</v>
+      </c>
+      <c r="BU93" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -20469,6 +21031,12 @@
           <t>2-s2.0-84918583548</t>
         </is>
       </c>
+      <c r="BT94" t="n">
+        <v>2355</v>
+      </c>
+      <c r="BU94" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -20680,6 +21248,12 @@
           <t>2-s2.0-84907978483</t>
         </is>
       </c>
+      <c r="BT95" t="n">
+        <v>1079</v>
+      </c>
+      <c r="BU95" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -20901,6 +21475,12 @@
           <t>2-s2.0-84949116981</t>
         </is>
       </c>
+      <c r="BT96" t="n">
+        <v>1628</v>
+      </c>
+      <c r="BU96" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -21118,6 +21698,12 @@
           <t>2-s2.0-84923016381</t>
         </is>
       </c>
+      <c r="BT97" t="n">
+        <v>1087</v>
+      </c>
+      <c r="BU97" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -21339,6 +21925,12 @@
           <t>2-s2.0-84920156137</t>
         </is>
       </c>
+      <c r="BT98" t="n">
+        <v>3950</v>
+      </c>
+      <c r="BU98" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -21544,6 +22136,12 @@
           <t>2-s2.0-84918500201</t>
         </is>
       </c>
+      <c r="BT99" t="n">
+        <v>718</v>
+      </c>
+      <c r="BU99" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -21761,6 +22359,12 @@
           <t>2-s2.0-84912001295</t>
         </is>
       </c>
+      <c r="BT100" t="n">
+        <v>1433</v>
+      </c>
+      <c r="BU100" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -21970,6 +22574,12 @@
           <t>2-s2.0-84908370131</t>
         </is>
       </c>
+      <c r="BT101" t="n">
+        <v>1399</v>
+      </c>
+      <c r="BU101" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -22179,6 +22789,12 @@
           <t>2-s2.0-84941170731</t>
         </is>
       </c>
+      <c r="BT102" t="n">
+        <v>1964</v>
+      </c>
+      <c r="BU102" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -22396,6 +23012,12 @@
           <t>2-s2.0-84924735846</t>
         </is>
       </c>
+      <c r="BT103" t="n">
+        <v>1682</v>
+      </c>
+      <c r="BU103" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -22605,6 +23227,12 @@
           <t>2-s2.0-84928045832</t>
         </is>
       </c>
+      <c r="BT104" t="n">
+        <v>1612</v>
+      </c>
+      <c r="BU104" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -22814,6 +23442,12 @@
           <t>2-s2.0-84921278353</t>
         </is>
       </c>
+      <c r="BT105" t="n">
+        <v>1069</v>
+      </c>
+      <c r="BU105" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -23023,6 +23657,12 @@
           <t>2-s2.0-84905900518</t>
         </is>
       </c>
+      <c r="BT106" t="n">
+        <v>1585</v>
+      </c>
+      <c r="BU106" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -23235,6 +23875,12 @@
         <is>
           <t>2-s2.0-84942831289</t>
         </is>
+      </c>
+      <c r="BT107" t="n">
+        <v>1233</v>
+      </c>
+      <c r="BU107" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="108">
@@ -23441,6 +24087,12 @@
           <t>2-s2.0-84942824384</t>
         </is>
       </c>
+      <c r="BT108" t="n">
+        <v>573</v>
+      </c>
+      <c r="BU108" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -23652,6 +24304,12 @@
           <t>2-s2.0-84925059884</t>
         </is>
       </c>
+      <c r="BT109" t="n">
+        <v>802</v>
+      </c>
+      <c r="BU109" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -23863,6 +24521,12 @@
           <t>2-s2.0-84925355897</t>
         </is>
       </c>
+      <c r="BT110" t="n">
+        <v>670</v>
+      </c>
+      <c r="BU110" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -24076,6 +24740,12 @@
           <t>2-s2.0-84942825585</t>
         </is>
       </c>
+      <c r="BT111" t="n">
+        <v>936</v>
+      </c>
+      <c r="BU111" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -24290,6 +24960,12 @@
         <is>
           <t>2-s2.0-84942829049</t>
         </is>
+      </c>
+      <c r="BT112" t="n">
+        <v>1848</v>
+      </c>
+      <c r="BU112" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="113">
@@ -24492,6 +25168,12 @@
           <t>2-s2.0-84988267434</t>
         </is>
       </c>
+      <c r="BT113" t="n">
+        <v>912</v>
+      </c>
+      <c r="BU113" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -24709,6 +25391,12 @@
           <t>2-s2.0-84919799143</t>
         </is>
       </c>
+      <c r="BT114" t="n">
+        <v>739</v>
+      </c>
+      <c r="BU114" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -24914,6 +25602,12 @@
           <t>2-s2.0-84908367771</t>
         </is>
       </c>
+      <c r="BT115" t="n">
+        <v>830</v>
+      </c>
+      <c r="BU115" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -25127,6 +25821,12 @@
           <t>2-s2.0-84942822192</t>
         </is>
       </c>
+      <c r="BT116" t="n">
+        <v>408</v>
+      </c>
+      <c r="BU116" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -25347,6 +26047,12 @@
         <is>
           <t>2-s2.0-84941177681</t>
         </is>
+      </c>
+      <c r="BT117" t="n">
+        <v>2117</v>
+      </c>
+      <c r="BU117" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="118">
@@ -25557,6 +26263,12 @@
           <t>2-s2.0-84907996745</t>
         </is>
       </c>
+      <c r="BT118" t="n">
+        <v>1634</v>
+      </c>
+      <c r="BU118" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -25770,6 +26482,12 @@
           <t>2-s2.0-84926389430</t>
         </is>
       </c>
+      <c r="BT119" t="n">
+        <v>531</v>
+      </c>
+      <c r="BU119" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
